--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -25,7 +25,8 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet11!$A$24:$I$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet8!$A$2:$I$88</definedName>
   </definedNames>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="390">
   <si>
     <t>-rwxrwx---</t>
   </si>
@@ -1029,93 +1030,27 @@
     <t>H2H03086.jpg</t>
   </si>
   <si>
-    <t>NGUYỄN CÔNG BẰNG</t>
-  </si>
-  <si>
-    <t>PHẠM THỊ HOA</t>
-  </si>
-  <si>
-    <t>PHẠM VĂN THẮNG</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ LOAN</t>
-  </si>
-  <si>
-    <t>12/12/1998</t>
-  </si>
-  <si>
-    <t>20/12/2001</t>
-  </si>
-  <si>
     <t>08-2022</t>
   </si>
   <si>
     <t>05-2022</t>
   </si>
   <si>
-    <t>24-08-2023</t>
-  </si>
-  <si>
     <t>10-11-2024</t>
   </si>
   <si>
-    <t>04-02-2024</t>
-  </si>
-  <si>
     <t>15-12-2024</t>
   </si>
   <si>
-    <t>ẤP TÂN PHÚ A, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP</t>
-  </si>
-  <si>
     <t>ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP</t>
   </si>
   <si>
-    <t>ẤP HẠ, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP</t>
-  </si>
-  <si>
     <t>F12/18T QUÁCH ĐIÊU, XÃ VĨNH LỘC A, HUYỆN BÌNH CHÁNH, TP.HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">  03 /  02 </t>
-  </si>
-  <si>
     <t xml:space="preserve">  14 /  12 </t>
   </si>
   <si>
-    <t xml:space="preserve">  04 /  02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  15 /  12 </t>
-  </si>
-  <si>
-    <t>Nhằm ngày 24 tháng 12 năm Quý Mão</t>
-  </si>
-  <si>
-    <t>Nhằm ngày 14 tháng 11 năm Giáp Thìn</t>
-  </si>
-  <si>
-    <t>Nhằm ngày 25 tháng 12 năm Quý Mão</t>
-  </si>
-  <si>
-    <t>Nhằm ngày 15 tháng 11 năm Giáp Thìn</t>
-  </si>
-  <si>
-    <t>LIÊN HỆ LÀM THIỆP : 0353.602.165 MS LINH ( website chỉ duy nhất một số này )</t>
-  </si>
-  <si>
-    <t>Lưu ý : Hiện tại đang có nhiều đơn vị giả mạo , quý khách vui lòng liên hệ trực tiếp qua số hotline 0353.602.165 MS LINH để đảm bảo quyền lợi</t>
-  </si>
-  <si>
-    <t>Chia sẻ thiệp</t>
-  </si>
-  <si>
-    <t>Bản quyền 2023 thuộc về Thiệp cưới điện tử®</t>
-  </si>
-  <si>
-    <t>11H30</t>
-  </si>
-  <si>
     <t>NGUYỄN VĂN ĐÊ</t>
   </si>
   <si>
@@ -1131,16 +1066,178 @@
     <t>02/09'2000</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Bản quyền 08-2022 thuộc về Thiệp cưới điện tử®</t>
+    <t>https://cdn.jsdelivr.net/npm/remixicon/fonts/remixicon.css" rel="stylesheet"</t>
+  </si>
+  <si>
+    <t>https://gmpg.org/xfn/11"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710-1024x683.jpeg"</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/"</t>
+  </si>
+  <si>
+    <t>https://unpkg.com/"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/feed/"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/comments/feed/"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/feed/"</t>
+  </si>
+  <si>
+    <t>https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/72x72\/","ext":".png","svgUrl":"https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/svg\/","svgExt":".svg","source":{"concatemoji":"https:\/\/thiepdientu.com.vn\/wp-includes\/js\/wp-emoji-release.min.js?ver=6.7.1"</t>
+  </si>
+  <si>
+    <t>https://api.w.org/" href="https://thiepdientu.com.vn/wp-json/"&gt;&lt;link rel="alternate" title="JSON" type="application/json" href="https://thiepdientu.com.vn/wp-json/wp/v2/mau-thiep/1077"&gt;&lt;link rel="EditURI" type="application/rsd+xml" title="RSD" href="https://thiepdientu.com.vn/xmlrpc.php?rsd"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/?p=1077"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F&amp;amp;format=xml"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-32x32.png" sizes="32x32"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-192x192.png" sizes="192x192"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-180x180.png"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-270x270.png"</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Trung+T%C3%A2m+Ti%E1%BB%87c+C%C6%B0%E1%BB%9Bi+H%E1%BB%99i+Ngh%E1%BB%8B+Happy+Gold/@10.788858,106.6375023,15z/data=!4m2!3m1!1s0x0:0x981478cbf522879?sa=X&amp;ved=1t:2428&amp;ictx=111" target="_blank" class="btn btn-pri"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/E1688A8E-C5E3-49B3-A5B4-2AF6EB7F6BAF.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/BEEFADED-A61C-4802-A47C-65450136B451.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/A91CA144-C1FF-474D-B4D6-F3DAC89B3DB1.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/680E95E0-8069-44F3-A286-4F8D81C2D425.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/D6231ABF-3CCB-4FD4-B252-D0505AC48803.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/0F3691F5-4ACA-48B8-810A-C4D0A766B998-e1705072255839.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/67369EDA-AB9B-42BA-BB2C-8C1147C31E71.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/D705C86D-1D18-430C-8ACD-C05F512F302F-e1705073822731.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/AE583BCD-DFD5-4E52-901D-3A711D5DAA12.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/FF508208-8C60-4E2D-862A-1E81D79CE9C7-e1705073693356.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/E6BDD24D-609C-4722-BA61-B7F5213391D8.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/F38950F8-62A2-4FC3-B2FD-5C8B5438114E-e1705040910718.jpeg"</t>
+  </si>
+  <si>
+    <t>https://thiepdientu.com.vn/wp-content/uploads/2024/01/E3F7CC09-A2B0-4F8C-852F-B27DF96A6A9B-e1705040930946.jpeg"</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/K8FoFox5DMvEmKjL9" class="invi_map" target="_blank"</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/9WGiKBNyJ64LFgs1A" class="invi_map" target="_blank"</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/u/0/d/e/1FAIpQLSdD9g3WsFXklx1iJ2WTwnaKq7qXDh8fLcOetjSV8GMatzoWaA/formResponse"</t>
+  </si>
+  <si>
+    <t>-r-xr-x---</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>UsersGrp</t>
+  </si>
+  <si>
+    <t>H2H03149.jpg</t>
+  </si>
+  <si>
+    <t>Shane-Filan-Beautiful-In-White-Official-Video-5.mp3</t>
+  </si>
+  <si>
+    <t>animation.css</t>
+  </si>
+  <si>
+    <t>comment-reply.min.js</t>
+  </si>
+  <si>
+    <t>fancybox.css</t>
+  </si>
+  <si>
+    <t>fancybox.umd.js</t>
+  </si>
+  <si>
+    <t>footer.css</t>
+  </si>
+  <si>
+    <t>logo-doc3.png</t>
+  </si>
+  <si>
+    <t>men-icon.png</t>
+  </si>
+  <si>
+    <t>preload.css</t>
+  </si>
+  <si>
+    <t>preloader.js</t>
+  </si>
+  <si>
+    <t>reset-wedding.css</t>
+  </si>
+  <si>
+    <t>scrollreveal.min.js</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <t>swiper-bundle.min.css</t>
+  </si>
+  <si>
+    <t>swiper-bundle.min.js</t>
+  </si>
+  <si>
+    <t>theme.css</t>
+  </si>
+  <si>
+    <t>wm-icon.png</t>
+  </si>
+  <si>
+    <t>z5062484714460_86b92a8805a1d69892e3ad506673b204-5-e170507375.jpg</t>
   </si>
 </sst>
 </file>
@@ -1585,23 +1682,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="77.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="87.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -1611,16 +1708,16 @@
       </c>
       <c r="D1" t="str">
         <f>"f"&amp;C1&amp;A1&amp;C1&amp;":"&amp;C1&amp;B1&amp;C1&amp;","</f>
-        <v>f"04":"15",</v>
+        <v>f"https://cdn.jsdelivr.net/npm/remixicon/fonts/remixicon.css" rel="stylesheet"":"15",</v>
       </c>
       <c r="E1" t="str">
         <f>"f"&amp;C1&amp;"&gt;"&amp;A1&amp;"&lt;"&amp;C1&amp;":"&amp;C1&amp;"&gt;"&amp;B1&amp;"&lt;"&amp;C1&amp;","</f>
-        <v>f"&gt;04&lt;":"&gt;15&lt;",</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>f"&gt;https://cdn.jsdelivr.net/npm/remixicon/fonts/remixicon.css" rel="stylesheet"&lt;":"&gt;15&lt;",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>241</v>
@@ -1630,35 +1727,36 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D64" si="0">"f"&amp;C2&amp;A2&amp;C2&amp;":"&amp;C2&amp;B2&amp;C2&amp;","</f>
-        <v>f"02":"Minh Thư",</v>
+        <v>f"https://gmpg.org/xfn/11"":"Minh Thư",</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E64" si="1">"f"&amp;C2&amp;"&gt;"&amp;A2&amp;"&lt;"&amp;C2&amp;":"&amp;C2&amp;"&gt;"&amp;B2&amp;"&lt;"&amp;C2&amp;","</f>
-        <v>f"&gt;02&lt;":"&gt;Minh Thư&lt;",</v>
+        <v>f"&gt;https://gmpg.org/xfn/11"&lt;":"&gt;Minh Thư&lt;",</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
+        <v>334</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Sheet11!A:B,2,0)</f>
+        <v>H2H02500.jpg</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>f"03":"11H30",</v>
+        <f>"f"&amp;C3&amp;A3&amp;":"&amp;C3&amp;"thiep\"&amp;B3&amp;C3&amp;","</f>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710-1024x683.jpeg":"thiep\H2H02500.jpg",</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;03&lt;":"&gt;11H30&lt;",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>7</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710-1024x683.jpeg"&lt;":"&gt;H2H02500.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" t="s">
+        <v>335</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1668,124 +1766,124 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>f"7":"1",</v>
+        <v>f"https://cdn.jsdelivr.net/"":"1",</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;7&lt;":"&gt;1&lt;",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>f"&gt;https://cdn.jsdelivr.net/"&lt;":"&gt;1&lt;",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>f"Lưu ý : Hiện tại đang có nhiều đơn vị giả mạo , quý khách vui lòng liên hệ trực tiếp qua số hotline 0353.602.165 MS LINH để đảm bảo quyền lợi":"",</v>
+        <v>f"https://unpkg.com/"":"",</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Lưu ý : Hiện tại đang có nhiều đơn vị giả mạo , quý khách vui lòng liên hệ trực tiếp qua số hotline 0353.602.165 MS LINH để đảm bảo quyền lợi&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>f"&gt;https://unpkg.com/"&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="12" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>f"Bản quyền 08-2022 thuộc về Thiệp cưới điện tử®":"",</v>
+        <v>f"https://thiepdientu.com.vn/feed/"":"",</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Bản quyền 08-2022 thuộc về Thiệp cưới điện tử®&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
+        <v>f"&gt;https://thiepdientu.com.vn/feed/"&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" hidden="1">
       <c r="A7" s="10" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>f"NGUYỄN CÔNG BẰNG":"NGUYỄN VĂN ĐÊ",</v>
+        <v>f"https://thiepdientu.com.vn/comments/feed/"":"NGUYỄN VĂN ĐÊ",</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;NGUYỄN CÔNG BẰNG&lt;":"&gt;NGUYỄN VĂN ĐÊ&lt;",</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
+        <v>f"&gt;https://thiepdientu.com.vn/comments/feed/"&lt;":"&gt;NGUYỄN VĂN ĐÊ&lt;",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" hidden="1">
       <c r="A8" s="10" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>f"PHẠM THỊ HOA":"LÊ THỊ HỒNG",</v>
+        <v>f"https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/feed/"":"LÊ THỊ HỒNG",</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;PHẠM THỊ HOA&lt;":"&gt;LÊ THỊ HỒNG&lt;",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999">
+        <v>f"&gt;https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/feed/"&lt;":"&gt;LÊ THỊ HỒNG&lt;",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" hidden="1">
       <c r="A9" s="10" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>f"PHẠM VĂN THẮNG":"LÊ CÔNG DANH",</v>
+        <v>f"https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/72x72\/","ext":".png","svgUrl":"https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/svg\/","svgExt":".svg","source":{"concatemoji":"https:\/\/thiepdientu.com.vn\/wp-includes\/js\/wp-emoji-release.min.js?ver=6.7.1"":"LÊ CÔNG DANH",</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;PHẠM VĂN THẮNG&lt;":"&gt;LÊ CÔNG DANH&lt;",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999">
+        <v>f"&gt;https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/72x72\/","ext":".png","svgUrl":"https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/svg\/","svgExt":".svg","source":{"concatemoji":"https:\/\/thiepdientu.com.vn\/wp-includes\/js\/wp-emoji-release.min.js?ver=6.7.1"&lt;":"&gt;LÊ CÔNG DANH&lt;",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" hidden="1">
       <c r="A10" s="10" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>f"TRẦN THỊ LOAN":"NGUYỄN THỊ KIM THO",</v>
+        <v>f"https://api.w.org/" href="https://thiepdientu.com.vn/wp-json/"&gt;&lt;link rel="alternate" title="JSON" type="application/json" href="https://thiepdientu.com.vn/wp-json/wp/v2/mau-thiep/1077"&gt;&lt;link rel="EditURI" type="application/rsd+xml" title="RSD" href="https://thiepdientu.com.vn/xmlrpc.php?rsd"":"NGUYỄN THỊ KIM THO",</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;TRẦN THỊ LOAN&lt;":"&gt;NGUYỄN THỊ KIM THO&lt;",</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>f"&gt;https://api.w.org/" href="https://thiepdientu.com.vn/wp-json/"&gt;&lt;link rel="alternate" title="JSON" type="application/json" href="https://thiepdientu.com.vn/wp-json/wp/v2/mau-thiep/1077"&gt;&lt;link rel="EditURI" type="application/rsd+xml" title="RSD" href="https://thiepdientu.com.vn/xmlrpc.php?rsd"&lt;":"&gt;NGUYỄN THỊ KIM THO&lt;",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="6" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>252</v>
@@ -1795,781 +1893,880 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>f"12/12/1998":"31/12/2000",</v>
+        <v>f"https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/"":"31/12/2000",</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;12/12/1998&lt;":"&gt;31/12/2000&lt;",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>f"&gt;https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/"&lt;":"&gt;31/12/2000&lt;",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.com.vn/?p=1077"":"02/09'2000",</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/?p=1077"&lt;":"&gt;02/09'2000&lt;",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F"":"05-2022",</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F"&lt;":"&gt;05-2022&lt;",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F&amp;amp;format=xml"":"08-2022",</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-json/oembed/1.0/embed?url=https%3A%2F%2Fthiepdientu.com.vn%2Fmau-thiep%2Fmau-thiep-lang-man%2F&amp;amp;format=xml"&lt;":"&gt;08-2022&lt;",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-32x32.png" sizes="32x32"":"10-11-2024",</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-32x32.png" sizes="32x32"&lt;":"&gt;10-11-2024&lt;",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
+      <c r="A16" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-192x192.png" sizes="192x192"":"15-12-2024",</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-192x192.png" sizes="192x192"&lt;":"&gt;15-12-2024&lt;",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" hidden="1">
+      <c r="A17" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-180x180.png"":"ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP",</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-180x180.png"&lt;":"&gt;ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP&lt;",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" hidden="1">
+      <c r="A18" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>f"20/12/2001":"02/09'2000",</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;20/12/2001&lt;":"&gt;02/09'2000&lt;",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>f"2013":"05-2022",</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;2013&lt;":"&gt;05-2022&lt;",</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-270x270.png"":"F12/18T QUÁCH ĐIÊU, XÃ VĨNH LỘC A, HUYỆN BÌNH CHÁNH, TP.HCM",</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-270x270.png"&lt;":"&gt;F12/18T QUÁCH ĐIÊU, XÃ VĨNH LỘC A, HUYỆN BÌNH CHÁNH, TP.HCM&lt;",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
+      <c r="A19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" t="s">
         <v>326</v>
       </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>f"2023":"08-2022",</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;2023&lt;":"&gt;08-2022&lt;",</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>f"24-08-2023":"10-11-2024",</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;24-08-2023&lt;":"&gt;10-11-2024&lt;",</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>f"04-02-2024":"15-12-2024",</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;04-02-2024&lt;":"&gt;15-12-2024&lt;",</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4">
-      <c r="A17" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>f"ẤP TÂN PHÚ A, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP":"ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP",</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;ẤP TÂN PHÚ A, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP&lt;":"&gt;ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP&lt;",</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4">
-      <c r="A18" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>f"ẤP HẠ, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP":"F12/18T QUÁCH ĐIÊU, XÃ VĨNH LỘC A, HUYỆN BÌNH CHÁNH, TP.HCM",</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;ẤP HẠ, XÃ TÂN BÌNH, HUYỆN THANH BÌNH, TỈNH ĐỒNG THÁP&lt;":"&gt;F12/18T QUÁCH ĐIÊU, XÃ VĨNH LỘC A, HUYỆN BÌNH CHÁNH, TP.HCM&lt;",</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" t="s">
-        <v>337</v>
-      </c>
       <c r="C19" t="s">
         <v>90</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>f"  03 /  02 ":"  14 /  12 ",</v>
+        <v>f"https://www.google.com/maps/place/Trung+T%C3%A2m+Ti%E1%BB%87c+C%C6%B0%E1%BB%9Bi+H%E1%BB%99i+Ngh%E1%BB%8B+Happy+Gold/@10.788858,106.6375023,15z/data=!4m2!3m1!1s0x0:0x981478cbf522879?sa=X&amp;ved=1t:2428&amp;ictx=111" target="_blank" class="btn btn-pri"":"  14 /  12 ",</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;  03 /  02 &lt;":"&gt;  14 /  12 &lt;",</v>
+        <v>f"&gt;https://www.google.com/maps/place/Trung+T%C3%A2m+Ti%E1%BB%87c+C%C6%B0%E1%BB%9Bi+H%E1%BB%99i+Ngh%E1%BB%8B+Happy+Gold/@10.788858,106.6375023,15z/data=!4m2!3m1!1s0x0:0x981478cbf522879?sa=X&amp;ved=1t:2428&amp;ictx=111" target="_blank" class="btn btn-pri"&lt;":"&gt;  14 /  12 &lt;",</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" t="s">
-        <v>339</v>
+        <v>351</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Sheet11!A:B,2,0)</f>
+        <v>H2H02567.jpg</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>f"  04 /  02 ":"  15 /  12 ",</v>
+        <f t="shared" ref="D20:D33" si="2">"f"&amp;C20&amp;A20&amp;":"&amp;C20&amp;"thiep\"&amp;B20&amp;C20&amp;","</f>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/E1688A8E-C5E3-49B3-A5B4-2AF6EB7F6BAF.jpeg":"thiep\H2H02567.jpg",</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;  04 /  02 &lt;":"&gt;  15 /  12 &lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/E1688A8E-C5E3-49B3-A5B4-2AF6EB7F6BAF.jpeg"&lt;":"&gt;H2H02567.jpg&lt;",</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Sheet11!A:B,2,0)</f>
+        <v>H2H02726.jpg</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>f"Nhằm ngày 24 tháng 12 năm Quý Mão":"Nhằm ngày 14 tháng 11 năm Giáp Thìn",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/BEEFADED-A61C-4802-A47C-65450136B451.jpeg":"thiep\H2H02726.jpg",</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Nhằm ngày 24 tháng 12 năm Quý Mão&lt;":"&gt;Nhằm ngày 14 tháng 11 năm Giáp Thìn&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/BEEFADED-A61C-4802-A47C-65450136B451.jpeg"&lt;":"&gt;H2H02726.jpg&lt;",</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" t="s">
-        <v>343</v>
+        <v>353</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,Sheet11!A:B,2,0)</f>
+        <v>H2H02748.jpg</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>f"Nhằm ngày 25 tháng 12 năm Quý Mão":"Nhằm ngày 15 tháng 11 năm Giáp Thìn",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/A91CA144-C1FF-474D-B4D6-F3DAC89B3DB1.jpeg":"thiep\H2H02748.jpg",</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Nhằm ngày 25 tháng 12 năm Quý Mão&lt;":"&gt;Nhằm ngày 15 tháng 11 năm Giáp Thìn&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/A91CA144-C1FF-474D-B4D6-F3DAC89B3DB1.jpeg"&lt;":"&gt;H2H02748.jpg&lt;",</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>354</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Sheet11!A:B,2,0)</f>
+        <v>H2H02764.jpg</v>
       </c>
       <c r="C23" t="s">
         <v>90</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>f"LIÊN HỆ LÀM THIỆP : 0353.602.165 MS LINH ( website chỉ duy nhất một số này )":"",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/680E95E0-8069-44F3-A286-4F8D81C2D425.jpeg":"thiep\H2H02764.jpg",</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;LIÊN HỆ LÀM THIỆP : 0353.602.165 MS LINH ( website chỉ duy nhất một số này )&lt;":"&gt;&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/680E95E0-8069-44F3-A286-4F8D81C2D425.jpeg"&lt;":"&gt;H2H02764.jpg&lt;",</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>355</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Sheet11!A:B,2,0)</f>
+        <v>H2H02772.jpg</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>f"Lưu ý : Hiện tại đang có nhiều đơn vị giả mạo , quý khách vui lòng liên hệ trực tiếp qua số hotline 0353.602.165 MS LINH để đảm bảo quyền lợi":"",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/D6231ABF-3CCB-4FD4-B252-D0505AC48803.jpeg":"thiep\H2H02772.jpg",</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Lưu ý : Hiện tại đang có nhiều đơn vị giả mạo , quý khách vui lòng liên hệ trực tiếp qua số hotline 0353.602.165 MS LINH để đảm bảo quyền lợi&lt;":"&gt;&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/D6231ABF-3CCB-4FD4-B252-D0505AC48803.jpeg"&lt;":"&gt;H2H02772.jpg&lt;",</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6">
       <c r="A25" s="11" t="s">
-        <v>346</v>
+        <v>356</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Sheet11!A:B,2,0)</f>
+        <v>H2H02796.jpg</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>f"Chia sẻ thiệp":"",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/0F3691F5-4ACA-48B8-810A-C4D0A766B998-e1705072255839.jpeg":"thiep\H2H02796.jpg",</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Chia sẻ thiệp&lt;":"&gt;&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/0F3691F5-4ACA-48B8-810A-C4D0A766B998-e1705072255839.jpeg"&lt;":"&gt;H2H02796.jpg&lt;",</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>357</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,Sheet11!A:B,2,0)</f>
+        <v>H2H02881.jpg</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>f"Bản quyền 2023 thuộc về Thiệp cưới điện tử®":"",</v>
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/67369EDA-AB9B-42BA-BB2C-8C1147C31E71.jpeg":"thiep\H2H02881.jpg",</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>f"&gt;Bản quyền 2023 thuộc về Thiệp cưới điện tử®&lt;":"&gt;&lt;",</v>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/67369EDA-AB9B-42BA-BB2C-8C1147C31E71.jpeg"&lt;":"&gt;H2H02881.jpg&lt;",</v>
       </c>
     </row>
     <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Sheet11!A:B,2,0)</f>
+        <v>H2H02922.jpg</v>
+      </c>
       <c r="C27" t="s">
         <v>90</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/D705C86D-1D18-430C-8ACD-C05F512F302F-e1705073822731.jpeg":"thiep\H2H02922.jpg",</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/D705C86D-1D18-430C-8ACD-C05F512F302F-e1705073822731.jpeg"&lt;":"&gt;H2H02922.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,Sheet11!A:B,2,0)</f>
+        <v>H2H02956.jpg</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/AE583BCD-DFD5-4E52-901D-3A711D5DAA12.jpeg":"thiep\H2H02956.jpg",</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/AE583BCD-DFD5-4E52-901D-3A711D5DAA12.jpeg"&lt;":"&gt;H2H02956.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,Sheet11!A:B,2,0)</f>
+        <v>H2H02959.jpg</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/FF508208-8C60-4E2D-862A-1E81D79CE9C7-e1705073693356.jpeg":"thiep\H2H02959.jpg",</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/FF508208-8C60-4E2D-862A-1E81D79CE9C7-e1705073693356.jpeg"&lt;":"&gt;H2H02959.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,Sheet11!A:B,2,0)</f>
+        <v>H2H03021.jpg</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/E6BDD24D-609C-4722-BA61-B7F5213391D8.jpeg":"thiep\H2H03021.jpg",</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/E6BDD24D-609C-4722-BA61-B7F5213391D8.jpeg"&lt;":"&gt;H2H03021.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,Sheet11!A:B,2,0)</f>
+        <v>H2H03048.jpg</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710.jpeg":"thiep\H2H03048.jpg",</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710.jpeg"&lt;":"&gt;H2H03048.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,Sheet11!A:B,2,0)</f>
+        <v>H2H03062.jpg</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/F38950F8-62A2-4FC3-B2FD-5C8B5438114E-e1705040910718.jpeg":"thiep\H2H03062.jpg",</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/F38950F8-62A2-4FC3-B2FD-5C8B5438114E-e1705040910718.jpeg"&lt;":"&gt;H2H03062.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,Sheet11!A:B,2,0)</f>
+        <v>H2H03074.jpg</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>f"https://thiepdientu.com.vn/wp-content/uploads/2024/01/E3F7CC09-A2B0-4F8C-852F-B27DF96A6A9B-e1705040930946.jpeg":"thiep\H2H03074.jpg",</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/E3F7CC09-A2B0-4F8C-852F-B27DF96A6A9B-e1705040930946.jpeg"&lt;":"&gt;H2H03074.jpg&lt;",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1">
+      <c r="A34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://maps.app.goo.gl/K8FoFox5DMvEmKjL9" class="invi_map" target="_blank"":"",</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://maps.app.goo.gl/K8FoFox5DMvEmKjL9" class="invi_map" target="_blank"&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
+      <c r="A35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://maps.app.goo.gl/9WGiKBNyJ64LFgs1A" class="invi_map" target="_blank"":"",</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://maps.app.goo.gl/9WGiKBNyJ64LFgs1A" class="invi_map" target="_blank"&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="str">
+        <f>"f"&amp;C36&amp;A36&amp;C36&amp;":"&amp;C36&amp;"thiep\"&amp;B36&amp;C36&amp;","</f>
+        <v>f"":"thiep\",</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>f"https://docs.google.com/forms/u/0/d/e/1FAIpQLSdD9g3WsFXklx1iJ2WTwnaKq7qXDh8fLcOetjSV8GMatzoWaA/formResponse"":"",</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>f"&gt;https://docs.google.com/forms/u/0/d/e/1FAIpQLSdD9g3WsFXklx1iJ2WTwnaKq7qXDh8fLcOetjSV8GMatzoWaA/formResponse"&lt;":"&gt;&lt;",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="str">
+    <row r="39" spans="1:5" hidden="1">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="str">
+    <row r="40" spans="1:5" hidden="1">
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="str">
+    <row r="41" spans="1:5" hidden="1">
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="str">
+    <row r="42" spans="1:5" hidden="1">
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="str">
+    <row r="43" spans="1:5" hidden="1">
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="str">
+    <row r="44" spans="1:5" hidden="1">
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="str">
+    <row r="45" spans="1:5" hidden="1">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="str">
+    <row r="46" spans="1:5" hidden="1">
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="str">
+    <row r="47" spans="1:5" hidden="1">
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="str">
+    <row r="48" spans="1:5" hidden="1">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="str">
+    <row r="49" spans="3:5" hidden="1">
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" t="str">
+    <row r="50" spans="3:5" hidden="1">
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="str">
+    <row r="51" spans="3:5" hidden="1">
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="str">
+    <row r="52" spans="3:5" hidden="1">
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="str">
+    <row r="53" spans="3:5" hidden="1">
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="str">
+    <row r="54" spans="3:5" hidden="1">
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="str">
+    <row r="55" spans="3:5" hidden="1">
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="str">
+    <row r="56" spans="3:5" hidden="1">
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="str">
+    <row r="57" spans="3:5" hidden="1">
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="str">
+    <row r="58" spans="3:5" hidden="1">
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" t="str">
+    <row r="59" spans="3:5" hidden="1">
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="str">
+    <row r="60" spans="3:5" hidden="1">
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" t="str">
+    <row r="61" spans="3:5" hidden="1">
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
-      <c r="C51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" t="str">
+    <row r="62" spans="3:5" hidden="1">
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="52" spans="3:5">
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="str">
+    <row r="63" spans="3:5" hidden="1">
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="str">
+    <row r="64" spans="3:5" hidden="1">
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="str">
         <f t="shared" si="0"/>
         <v>f"":"",</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="1"/>
         <v>f"&gt;&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="54" spans="3:5">
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5">
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5">
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>f"":"",</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>f"&gt;&lt;":"&gt;&lt;",</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A64">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="https://static.vecteezy.com/system/resources/previews/016/407/415/original/paper-cut-sweet-pink-envelope-and-heart-with-copy-space-for-design-valentine-s-day-or-love-day-background-concept-send-a-letter-to-a-lover-couple-free-vector.jpg)&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/0F3691F5-4ACA-48B8-810A-C4D0A766B998-e1705072255839.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/2B90752A-19C2-4BC8-A33D-0CCCC6FA32E0-e1705040892710-1024x683.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/67369EDA-AB9B-42BA-BB2C-8C1147C31E71.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/680E95E0-8069-44F3-A286-4F8D81C2D425.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/A91CA144-C1FF-474D-B4D6-F3DAC89B3DB1.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/AE583BCD-DFD5-4E52-901D-3A711D5DAA12.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/BEEFADED-A61C-4802-A47C-65450136B451.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/D6231ABF-3CCB-4FD4-B252-D0505AC48803.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/D705C86D-1D18-430C-8ACD-C05F512F302F-e1705073822731.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/E1688A8E-C5E3-49B3-A5B4-2AF6EB7F6BAF.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/E3F7CC09-A2B0-4F8C-852F-B27DF96A6A9B-e1705040930946.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/E6BDD24D-609C-4722-BA61-B7F5213391D8.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/F38950F8-62A2-4FC3-B2FD-5C8B5438114E-e1705040910718.jpeg&quot;"/>
+        <filter val="https://thiepdientu.com.vn/wp-content/uploads/2024/01/FF508208-8C60-4E2D-862A-1E81D79CE9C7-e1705073693356.jpeg&quot;"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2921,9 +3118,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:B110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -3099,7 +3299,1791 @@
         <v>mv FF508208-8C60-4E2D-862A-1E81D79CE9C7-e1705073693356.jpeg H2H03086.jpg</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24">
+        <v>155088</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25">
+        <v>1118347</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26">
+        <v>1064753</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27">
+        <v>140021</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>369</v>
+      </c>
+      <c r="D28" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28">
+        <v>1706296</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29">
+        <v>1194611</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30">
+        <v>857982</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E31">
+        <v>687649</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32">
+        <v>1503146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="I32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33">
+        <v>1741601</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34">
+        <v>1737722</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E35">
+        <v>577735</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="I35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36">
+        <v>1716168</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.86388888888888893</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37">
+        <v>712198</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38">
+        <v>1003259</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" t="s">
+        <v>370</v>
+      </c>
+      <c r="E39">
+        <v>1334197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" t="s">
+        <v>370</v>
+      </c>
+      <c r="E40">
+        <v>562546</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="I40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41">
+        <v>698941</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42">
+        <v>479920</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43">
+        <v>678754</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>368</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>369</v>
+      </c>
+      <c r="D44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44">
+        <v>542832</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" t="s">
+        <v>370</v>
+      </c>
+      <c r="E45">
+        <v>1329512</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="I45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" t="s">
+        <v>370</v>
+      </c>
+      <c r="E46">
+        <v>997405</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47">
+        <v>35548</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
+      <c r="A48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" t="s">
+        <v>370</v>
+      </c>
+      <c r="E48">
+        <v>4040</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49">
+        <v>26053</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
+      <c r="A50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" t="s">
+        <v>370</v>
+      </c>
+      <c r="E50">
+        <v>14239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>369</v>
+      </c>
+      <c r="D51" t="s">
+        <v>370</v>
+      </c>
+      <c r="E51">
+        <v>3026</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
+      <c r="A52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>369</v>
+      </c>
+      <c r="D52" t="s">
+        <v>370</v>
+      </c>
+      <c r="E52">
+        <v>25343</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
+      <c r="A53" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53">
+        <v>142361</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
+      <c r="A54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" t="s">
+        <v>370</v>
+      </c>
+      <c r="E54">
+        <v>1094</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="A55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" t="s">
+        <v>370</v>
+      </c>
+      <c r="E55">
+        <v>13577</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
+      <c r="A56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56">
+        <v>87553</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="A57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" t="s">
+        <v>370</v>
+      </c>
+      <c r="E57">
+        <v>87533</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
+      <c r="A58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58">
+        <v>9245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
+      <c r="A59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" t="s">
+        <v>370</v>
+      </c>
+      <c r="E59">
+        <v>621</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
+      <c r="A60" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D60" t="s">
+        <v>370</v>
+      </c>
+      <c r="E60">
+        <v>3349</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>369</v>
+      </c>
+      <c r="D61" t="s">
+        <v>370</v>
+      </c>
+      <c r="E61">
+        <v>645</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
+      <c r="A62" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>369</v>
+      </c>
+      <c r="D62" t="s">
+        <v>370</v>
+      </c>
+      <c r="E62">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>369</v>
+      </c>
+      <c r="D63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E63">
+        <v>65536</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
+      <c r="A64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s">
+        <v>370</v>
+      </c>
+      <c r="E64">
+        <v>618</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>24</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65">
+        <v>1720</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66">
+        <v>16393</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1">
+      <c r="A67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67">
+        <v>18547</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>25</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>369</v>
+      </c>
+      <c r="D68" t="s">
+        <v>370</v>
+      </c>
+      <c r="E68">
+        <v>114706</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69">
+        <v>18458</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>24</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I69" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1">
+      <c r="A70" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>369</v>
+      </c>
+      <c r="D70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E70">
+        <v>151700</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I70" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>369</v>
+      </c>
+      <c r="D71" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71">
+        <v>3492</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>24</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" t="s">
+        <v>370</v>
+      </c>
+      <c r="E72">
+        <v>64706</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>24</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E73">
+        <v>264115</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>24</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1">
+      <c r="A74" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>369</v>
+      </c>
+      <c r="D74" t="s">
+        <v>370</v>
+      </c>
+      <c r="E74">
+        <v>143381</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1">
+      <c r="A75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>369</v>
+      </c>
+      <c r="D75" t="s">
+        <v>370</v>
+      </c>
+      <c r="E75">
+        <v>10926</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>24</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1">
+      <c r="A76" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76">
+        <v>3748</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1">
+      <c r="A77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>369</v>
+      </c>
+      <c r="D77" t="s">
+        <v>370</v>
+      </c>
+      <c r="E77">
+        <v>18726</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>24</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" t="s">
+        <v>370</v>
+      </c>
+      <c r="E78">
+        <v>66016</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>24</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="I78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>352</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.6">
+      <c r="A94" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>358</v>
+      </c>
+      <c r="B96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>359</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>362</v>
+      </c>
+      <c r="B100" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>363</v>
+      </c>
+      <c r="B101" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>364</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A24:I78">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="H2H02567.jpg"/>
+        <filter val="H2H02726.jpg"/>
+        <filter val="H2H02748.jpg"/>
+        <filter val="H2H02764.jpg"/>
+        <filter val="H2H02772.jpg"/>
+        <filter val="H2H02796.jpg"/>
+        <filter val="H2H02881.jpg"/>
+        <filter val="H2H02922.jpg"/>
+        <filter val="H2H02956.jpg"/>
+        <filter val="H2H02959.jpg"/>
+        <filter val="H2H03021.jpg"/>
+        <filter val="H2H03048.jpg"/>
+        <filter val="H2H03062.jpg"/>
+        <filter val="H2H03074.jpg"/>
+        <filter val="H2H03086.jpg"/>
+        <filter val="H2H03119.jpg"/>
+        <filter val="H2H03149.jpg"/>
+        <filter val="H2H03163.jpg"/>
+        <filter val="H2H03193.jpg"/>
+        <filter val="H2H03215.jpg"/>
+        <filter val="H2H03258.jpg"/>
+        <filter val="H2H03370.jpg"/>
+        <filter val="z5062484714460_86b92a8805a1d69892e3ad506673b204-5-e170507375.jpg"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thiep2\thiepcuoilangman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thiepcuoi_new_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D9A59D-D82A-45AC-A656-B7CA30DA4955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId11"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet11!$A$24:$I$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet8!$A$2:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$A$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet8!$A$2:$I$88</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="391">
   <si>
     <t>-rwxrwx---</t>
   </si>
@@ -1238,12 +1240,17 @@
   </si>
   <si>
     <t>z5062484714460_86b92a8805a1d69892e3ad506673b204-5-e170507375.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a data-fancybox="gallery3" href="thiep/H2H02749.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/H2H02749.jpg" alt=""&gt;
+                &lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1319,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1347,6 +1354,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1681,19 +1689,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D33"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="255.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.09765625" customWidth="1"/>
+    <col min="1" max="1" width="255.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1805,7 +1813,7 @@
         <v>f"&gt;https://thiepdientu.com.vn/feed/"&lt;":"&gt;&lt;",</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" hidden="1">
+    <row r="7" spans="1:5" ht="17.5" hidden="1">
       <c r="A7" s="10" t="s">
         <v>338</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>f"&gt;https://thiepdientu.com.vn/comments/feed/"&lt;":"&gt;NGUYỄN VĂN ĐÊ&lt;",</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" hidden="1">
+    <row r="8" spans="1:5" ht="17.5" hidden="1">
       <c r="A8" s="10" t="s">
         <v>339</v>
       </c>
@@ -1843,7 +1851,7 @@
         <v>f"&gt;https://thiepdientu.com.vn/mau-thiep/mau-thiep-lang-man/feed/"&lt;":"&gt;LÊ THỊ HỒNG&lt;",</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" hidden="1">
+    <row r="9" spans="1:5" ht="17.5" hidden="1">
       <c r="A9" s="10" t="s">
         <v>340</v>
       </c>
@@ -1862,7 +1870,7 @@
         <v>f"&gt;https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/72x72\/","ext":".png","svgUrl":"https:\/\/s.w.org\/images\/core\/emoji\/15.0.3\/svg\/","svgExt":".svg","source":{"concatemoji":"https:\/\/thiepdientu.com.vn\/wp-includes\/js\/wp-emoji-release.min.js?ver=6.7.1"&lt;":"&gt;LÊ CÔNG DANH&lt;",</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" hidden="1">
+    <row r="10" spans="1:5" ht="17.5" hidden="1">
       <c r="A10" s="10" t="s">
         <v>341</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-192x192.png" sizes="192x192"&lt;":"&gt;15-12-2024&lt;",</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" hidden="1">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="9" t="s">
         <v>348</v>
       </c>
@@ -2014,7 +2022,7 @@
         <v>f"&gt;https://thiepdientu.s3.ap-southeast-1.amazonaws.com/wp-content/uploads/2024/03/26115441/cropped-logo-favicon-180x180.png"&lt;":"&gt;ẤP 1, XÃ PHONG MỸ, HUYỆN CAO LÃNH, TỈNH ĐỒNG THÁP&lt;",</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" hidden="1">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="9" t="s">
         <v>349</v>
       </c>
@@ -2152,7 +2160,7 @@
         <v>f"&gt;https://thiepdientu.com.vn/wp-content/uploads/2024/01/D6231ABF-3CCB-4FD4-B252-D0505AC48803.jpeg"&lt;":"&gt;H2H02772.jpg&lt;",</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="11" t="s">
         <v>356</v>
       </c>
@@ -2745,7 +2753,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A64">
+  <autoFilter ref="A1:A64" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="https://static.vecteezy.com/system/resources/previews/016/407/415/original/paper-cut-sweet-pink-envelope-and-heart-with-copy-space-for-design-valentine-s-day-or-love-day-background-concept-send-a-letter-to-a-lover-couple-free-vector.jpg)&quot;"/>
@@ -2773,29 +2781,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="133.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.5">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72.5">
+      <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72.5">
+      <c r="A8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72.5">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.5">
+      <c r="A10" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72.5">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72.5">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72.5">
+      <c r="A13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72.5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="72.5">
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72.5">
+      <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="133.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.2">
+    <row r="1" spans="1:8" ht="43.5">
       <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="55.2">
+    <row r="2" spans="1:8" ht="29">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.4">
+    <row r="3" spans="1:8" ht="29">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -2821,72 +2951,72 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="55.2">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.2">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.4">
+    <row r="6" spans="1:8" ht="29">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="82.8">
+    <row r="7" spans="1:8" ht="72.5">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="82.8">
+    <row r="8" spans="1:8" ht="72.5">
       <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="82.8">
+    <row r="9" spans="1:8" ht="72.5">
       <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="82.8">
+    <row r="10" spans="1:8" ht="72.5">
       <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="82.8">
+    <row r="11" spans="1:8" ht="72.5">
       <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="82.8">
+    <row r="12" spans="1:8" ht="72.5">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="82.8">
+    <row r="13" spans="1:8" ht="72.5">
       <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="82.8">
+    <row r="14" spans="1:8" ht="72.5">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="82.8">
+    <row r="15" spans="1:8" ht="72.5">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="82.8">
+    <row r="16" spans="1:8" ht="72.5">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="41.4">
+    <row r="17" spans="1:8" ht="29">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -2922,17 +3052,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3117,18 +3247,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B110"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="57.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4942,7 +5072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6">
+    <row r="94" spans="1:2" ht="16">
       <c r="A94" s="11" t="s">
         <v>356</v>
       </c>
@@ -5055,7 +5185,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A24:I78">
+  <autoFilter ref="A24:I78" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="H2H02567.jpg"/>
@@ -5089,7 +5219,406 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ADF69F-41BD-4107-85BA-EA87F3816815}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="115.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" t="str">
+        <f>E1&amp;".jpg"</f>
+        <v>1.jpg</v>
+      </c>
+      <c r="C1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A1,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B1,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B1,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/1.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/1.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"mv "&amp;B1&amp;" "&amp;E1&amp;".jpg"</f>
+        <v>mv 1.jpg 1.jpg</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="str">
+        <f>E2&amp;".jpg"</f>
+        <v>2.jpg</v>
+      </c>
+      <c r="C2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A2,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B2,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B2,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/2.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/2.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"mv "&amp;B2&amp;" "&amp;E2&amp;".jpg"</f>
+        <v>mv 2.jpg 2.jpg</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="str">
+        <f>E3&amp;".jpg"</f>
+        <v>3.jpg</v>
+      </c>
+      <c r="C3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A3,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B3,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B3,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/3.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/3.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"mv "&amp;B3&amp;" "&amp;E3&amp;".jpg"</f>
+        <v>mv 3.jpg 3.jpg</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" t="str">
+        <f>E4&amp;".jpg"</f>
+        <v>4.jpg</v>
+      </c>
+      <c r="C4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A4,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B4,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B4,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/4.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/4.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"mv "&amp;B4&amp;" "&amp;E4&amp;".jpg"</f>
+        <v>mv 4.jpg 4.jpg</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" t="str">
+        <f>E5&amp;".jpg"</f>
+        <v>5.jpg</v>
+      </c>
+      <c r="C5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A5,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B5,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B5,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/5.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/5.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"mv "&amp;B5&amp;" "&amp;E5&amp;".jpg"</f>
+        <v>mv 5.jpg 5.jpg</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="str">
+        <f>E6&amp;".jpg"</f>
+        <v>6.jpg</v>
+      </c>
+      <c r="C6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A6,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B6,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B6,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/6.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/6.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"mv "&amp;B6&amp;" "&amp;E6&amp;".jpg"</f>
+        <v>mv 6.jpg 6.jpg</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" t="str">
+        <f>E7&amp;".jpg"</f>
+        <v>10.jpg</v>
+      </c>
+      <c r="C7" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A7,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B7,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B7,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/10.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/10.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"mv "&amp;B7&amp;" "&amp;E7&amp;".jpg"</f>
+        <v>mv 10.jpg 10.jpg</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" t="str">
+        <f>E8&amp;".jpg"</f>
+        <v>11.jpg</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A8,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B8,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B8,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/11.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/11.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"mv "&amp;B8&amp;" "&amp;E8&amp;".jpg"</f>
+        <v>mv 11.jpg 11.jpg</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="str">
+        <f>E9&amp;".jpg"</f>
+        <v>12.jpg</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A9,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B9,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B9,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/12.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/12.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"mv "&amp;B9&amp;" "&amp;E9&amp;".jpg"</f>
+        <v>mv 12.jpg 12.jpg</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" t="str">
+        <f>E10&amp;".jpg"</f>
+        <v>13.jpg</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A10,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B10,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B10,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/13.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/13.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"mv "&amp;B10&amp;" "&amp;E10&amp;".jpg"</f>
+        <v>mv 13.jpg 13.jpg</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B11" t="str">
+        <f>E11&amp;".jpg"</f>
+        <v>14.jpg</v>
+      </c>
+      <c r="C11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A11,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B11,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B11,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/14.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/14.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"mv "&amp;B11&amp;" "&amp;E11&amp;".jpg"</f>
+        <v>mv 14.jpg 14.jpg</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" t="str">
+        <f>E12&amp;".jpg"</f>
+        <v>15.jpg</v>
+      </c>
+      <c r="C12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A12,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B12,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B12,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/15.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/15.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"mv "&amp;B12&amp;" "&amp;E12&amp;".jpg"</f>
+        <v>mv 15.jpg 15.jpg</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" t="str">
+        <f>E13&amp;".jpg"</f>
+        <v>16.jpg</v>
+      </c>
+      <c r="C13" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A13,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B13,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B13,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/16.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/16.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"mv "&amp;B13&amp;" "&amp;E13&amp;".jpg"</f>
+        <v>mv 16.jpg 16.jpg</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" t="str">
+        <f>E14&amp;".jpg"</f>
+        <v>17.jpg</v>
+      </c>
+      <c r="C14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A14,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B14,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B14,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/17.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/17.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"mv "&amp;B14&amp;" "&amp;E14&amp;".jpg"</f>
+        <v>mv 17.jpg 17.jpg</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" t="str">
+        <f>E15&amp;".jpg"</f>
+        <v>18.jpg</v>
+      </c>
+      <c r="C15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A15,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B15,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B15,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/18.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/18.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"mv "&amp;B15&amp;" "&amp;E15&amp;".jpg"</f>
+        <v>mv 18.jpg 18.jpg</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" t="str">
+        <f>E16&amp;".jpg"</f>
+        <v>19.jpg</v>
+      </c>
+      <c r="C16" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A16,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B16,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B16,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/19.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/19.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"mv "&amp;B16&amp;" "&amp;E16&amp;".jpg"</f>
+        <v>mv 19.jpg 19.jpg</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" t="str">
+        <f>E17&amp;".jpg"</f>
+        <v>20.jpg</v>
+      </c>
+      <c r="C17" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(A17,"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B17,1),"thiep/H2H02749.jpg","thiep/anhkyniem/"&amp;B17,1)</f>
+        <v>&lt;a data-fancybox="gallery3" href="thiep/anhkyniem/20.jpg" style="display: none;"&gt;
+                    &lt;img src="thiep/anhkyniem/20.jpg" alt=""&gt;
+                &lt;/a&gt;</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"mv "&amp;B17&amp;" "&amp;E17&amp;".jpg"</f>
+        <v>mv 20.jpg 20.jpg</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E18">
+    <sortCondition ref="B1:B18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:A48"/>
   <sheetViews>
@@ -5097,9 +5626,9 @@
       <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="133.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5336,7 +5865,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A48">
+  <autoFilter ref="A1:A48" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="-rwxrwx---    1 197609   197121       15963 Nov 24 17:28 0F3691F5-4ACA-48B8-810A-C4D0A766B998-e1705072255839.jpeg"/>
@@ -5361,19 +5890,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6171,8 +6700,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:F88"/>
   <sheetViews>
@@ -6180,10 +6709,10 @@
       <selection activeCell="F49" sqref="F49:F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.5" customWidth="1"/>
+    <col min="1" max="1" width="77.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -7715,7 +8244,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I88">
+  <autoFilter ref="A2:I88" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="css"/>
@@ -7729,18 +8258,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="77.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -8024,27 +8553,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="409.6">
+    <row r="1" spans="1:8" ht="409.5">
       <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6">
+    <row r="2" spans="1:8" ht="409.5">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="276">
+    <row r="3" spans="1:8" ht="275.5">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -8070,72 +8599,72 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6">
+    <row r="4" spans="1:8" ht="409.5">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6">
+    <row r="5" spans="1:8" ht="409.5">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.6">
+    <row r="6" spans="1:8" ht="409.5">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6">
+    <row r="7" spans="1:8" ht="409.5">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6">
+    <row r="8" spans="1:8" ht="409.5">
       <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6">
+    <row r="9" spans="1:8" ht="409.5">
       <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6">
+    <row r="10" spans="1:8" ht="409.5">
       <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6">
+    <row r="11" spans="1:8" ht="409.5">
       <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6">
+    <row r="12" spans="1:8" ht="409.5">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6">
+    <row r="13" spans="1:8" ht="409.5">
       <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6">
+    <row r="14" spans="1:8" ht="409.5">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.6">
+    <row r="15" spans="1:8" ht="409.5">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409.6">
+    <row r="16" spans="1:8" ht="409.5">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="289.8">
+    <row r="17" spans="1:8" ht="290">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -8171,15 +8700,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -8851,126 +9380,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="133.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="55.2">
-      <c r="A1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="55.2">
-      <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="41.4">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="55.2">
-      <c r="A4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="55.2">
-      <c r="A5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.4">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="82.8">
-      <c r="A7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="82.8">
-      <c r="A8" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="82.8">
-      <c r="A9" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="82.8">
-      <c r="A10" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="82.8">
-      <c r="A11" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="82.8">
-      <c r="A12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="82.8">
-      <c r="A13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="82.8">
-      <c r="A14" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="82.8">
-      <c r="A15" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="82.8">
-      <c r="A16" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="41.4">
-      <c r="A17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>